--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V2/D12_03_2024/B4_B06_08.13_09.18/analysis_B4_B06_08.13_09.18.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V2/D12_03_2024/B4_B06_08.13_09.18/analysis_B4_B06_08.13_09.18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -542,7 +542,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -552,7 +552,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -562,7 +562,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -572,37 +572,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0376013560653105</v>
+        <v>0.0376013560653105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.98</v>
+        <v>3.371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.371</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -612,7 +612,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -622,7 +622,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -632,17 +632,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -652,7 +652,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -662,7 +662,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -672,7 +672,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -682,7 +682,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -692,7 +692,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -702,7 +702,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -712,7 +712,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -722,7 +722,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -732,121 +732,131 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.3</v>
+        <v>1.689470223333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1689470223333333</v>
+        <v>1.213909167768389e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.213909167768389e-08</v>
+        <v>22.70450751252087</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.257095158597663</v>
+        <v>2.899276572064552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.15637173066222</v>
+        <v>4.774624373956595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.785754034501948</v>
+        <v>9.315525876460768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.323873121869783</v>
+        <v>30.28380634390651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.30884808013355</v>
+        <v>5.779076238174736</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.784641068447413</v>
+        <v>8.597662771285476</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.597662771285476</v>
+        <v>11.47746243739566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.50528658875904</v>
+        <v>4.067890929326656</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V2/D12_03_2024/B4_B06_08.13_09.18/analysis_B4_B06_08.13_09.18.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V2/D12_03_2024/B4_B06_08.13_09.18/analysis_B4_B06_08.13_09.18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,67 +427,69 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Total time taken for the ride</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0.04474824074074074</v>
+          <t>Date and Time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-03-12 08:13:59.622000 to 2024-03-12 09:18:37.211000</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Actual Ampere-hours (Ah)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31.87679666666666</v>
+          <t>Total time taken for the ride</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.04474824074074074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Actual Watt-hours (Wh)</t>
+          <t>Actual Ampere-hours (Ah)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1597.140168137222</v>
+        <v>31.87679666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Starting SoC (Ah)</t>
+          <t>Actual Watt-hours (Wh)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.322</v>
+        <v>1597.140168137222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ending SoC (Ah)</t>
+          <t>Starting SoC (Ah)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.45</v>
+        <v>35.322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Starting SoC (%)</t>
+          <t>Ending SoC (Ah)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ending SoC (%)</t>
+          <t>Starting SoC (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -497,40 +499,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Ending SoC (%)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.2506607867321</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.3080916071328</v>
+        <v>35.2506607867321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>45.3080916071328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Total SOC consumed(%)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Custom mode
 52.47%
@@ -539,60 +551,50 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Peak Power</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5429.287385000001</v>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1497.318907628646</v>
+        <v>5429.287385000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6007722599999999</v>
+        <v>-1497.318907628646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0376013560653105</v>
+        <v>0.6007722599999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.98</v>
+        <v>0.0376013560653105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -602,251 +604,281 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.391</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1689470223333333</v>
+        <v>1.689470223333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.213909167768389e-08</v>
+        <v>1.213909167768389e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Cycle Count of battery</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.257095158597663</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.15637173066222</v>
+        <v>22.70450751252087</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.785754034501948</v>
+        <v>2.899276572064552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.323873121869783</v>
+        <v>4.774624373956595</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.30884808013355</v>
+        <v>9.315525876460768</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.784641068447413</v>
+        <v>30.28380634390651</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.597662771285476</v>
+        <v>5.779076238174736</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Time spent in 50-60 km/h</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8.597662771285476</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>11.50528658875904</v>
+      <c r="B43" t="n">
+        <v>11.47746243739566</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time spent in 70-80 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.067890929326656</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
